--- a/DataDictionaryTemplate.xlsx
+++ b/DataDictionaryTemplate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaqueline Acero\Desktop\Term Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laundryProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CFBA1C-95DB-4101-B709-4F44BF8BF12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2835" windowWidth="17280" windowHeight="9465" xr2:uid="{07EEDACD-45F9-4513-A15E-788DF889D03E}"/>
+    <workbookView xWindow="2832" yWindow="2832" windowWidth="17280" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>DATA DICTIONARY</t>
   </si>
@@ -95,18 +94,6 @@
     <t>Varchar</t>
   </si>
   <si>
-    <t xml:space="preserve">1 per </t>
-  </si>
-  <si>
-    <t>ApartmentNumber</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -129,12 +116,24 @@
   </si>
   <si>
     <t xml:space="preserve"> example 12pm-2pm</t>
+  </si>
+  <si>
+    <t>1 per Apt</t>
+  </si>
+  <si>
+    <t>(###)###-####</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,30 +716,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3FE5F3-685A-4EA5-8DC6-125F5C5D36A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
@@ -750,7 +749,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
@@ -760,7 +759,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
@@ -770,7 +769,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="2:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
@@ -780,7 +779,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -788,7 +787,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -796,7 +795,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -804,7 +803,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
@@ -824,80 +823,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -910,25 +911,25 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -936,7 +937,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -944,7 +945,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -952,7 +953,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -960,7 +961,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -968,7 +969,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -976,7 +977,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -984,7 +985,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -992,7 +993,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1000,7 +1001,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1008,7 +1009,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1016,7 +1017,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1024,7 +1025,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1032,7 +1033,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1040,7 +1041,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1048,7 +1049,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1056,7 +1057,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
